--- a/buko2.xlsx
+++ b/buko2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\Shiny-R\prueba_nube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB71E1EF-F8C5-4CFC-AB0A-75F0433FFBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5219238C-E4E0-4DA0-B44C-035AB2C57C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Texto n_1</t>
   </si>
@@ -37,13 +37,19 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/VictorEnamorado/prueba_nube/main/buko.txt</t>
+  </si>
+  <si>
+    <t>Texto n_2</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/VictorEnamorado/prueba_nube/main/monologo.txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +69,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -411,7 +423,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,6 +442,14 @@
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -439,10 +459,12 @@
       <c r="E9" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{BE241D7B-5325-4402-B538-AFB2BEE70FD5}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{14F72B87-F27E-4B4E-8DA6-F69561F7B202}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/buko2.xlsx
+++ b/buko2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\Shiny-R\prueba_nube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5219238C-E4E0-4DA0-B44C-035AB2C57C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6537E99D-FC33-493F-A31F-F502E6486AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
+    <workbookView xWindow="31200" yWindow="2400" windowWidth="21600" windowHeight="11325" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,22 +27,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Texto n_1</t>
-  </si>
-  <si>
     <t>textos</t>
   </si>
   <si>
     <t>direccion</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/VictorEnamorado/prueba_nube/main/buko.txt</t>
-  </si>
-  <si>
     <t>Texto n_2</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/VictorEnamorado/prueba_nube/main/monologo.txt</t>
+  </si>
+  <si>
+    <t>Mensaje Presidencial 1 de junio de 2021</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/VictorEnamorado/prueba_nube/main/discurso1.txt</t>
   </si>
 </sst>
 </file>
@@ -423,33 +423,36 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">

--- a/buko2.xlsx
+++ b/buko2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\Shiny-R\prueba_nube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6537E99D-FC33-493F-A31F-F502E6486AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE5A1C1-8618-4261-AB22-6D175205C2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31200" yWindow="2400" windowWidth="21600" windowHeight="11325" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
   </bookViews>
@@ -33,23 +33,23 @@
     <t>direccion</t>
   </si>
   <si>
-    <t>Texto n_2</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/VictorEnamorado/prueba_nube/main/monologo.txt</t>
-  </si>
-  <si>
     <t>Mensaje Presidencial 1 de junio de 2021</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/VictorEnamorado/prueba_nube/main/discurso1.txt</t>
+  </si>
+  <si>
+    <t>Mensaje Presidencial 31 de julio de 2020</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/VictorEnamorado/prueba_nube/main/discurso2.txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +79,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -101,10 +108,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -423,7 +433,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,18 +451,18 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -465,7 +475,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{BE241D7B-5325-4402-B538-AFB2BEE70FD5}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{14F72B87-F27E-4B4E-8DA6-F69561F7B202}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{873335D2-9C4B-4E34-9BB1-B0FDAA046311}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>

--- a/buko2.xlsx
+++ b/buko2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\Shiny-R\prueba_nube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE5A1C1-8618-4261-AB22-6D175205C2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36825B03-4081-4A26-AA09-1FA8C0C27935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31200" yWindow="2400" windowWidth="21600" windowHeight="11325" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>textos</t>
   </si>
@@ -43,13 +43,19 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/VictorEnamorado/prueba_nube/main/discurso2.txt</t>
+  </si>
+  <si>
+    <t>Mensaje Presidencial 1 de Junio de 2019</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/VictorEnamorado/prueba_nube/main/discurso3txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +91,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Roboto Lt"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,12 +125,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -433,15 +456,15 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -457,7 +480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="18">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -465,10 +488,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.399999999999999">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="E9" s="1"/>
     </row>
   </sheetData>
@@ -476,8 +510,9 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{BE241D7B-5325-4402-B538-AFB2BEE70FD5}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{873335D2-9C4B-4E34-9BB1-B0FDAA046311}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{5D351A8B-43BB-4694-A3D9-ED5302AC2EC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
--- a/buko2.xlsx
+++ b/buko2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\Shiny-R\prueba_nube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36825B03-4081-4A26-AA09-1FA8C0C27935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E8EA4D-CD3B-4861-8068-A244918621DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
   </bookViews>
@@ -48,7 +48,7 @@
     <t>Mensaje Presidencial 1 de Junio de 2019</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/VictorEnamorado/prueba_nube/main/discurso3txt</t>
+    <t>https://raw.githubusercontent.com/VictorEnamorado/prueba_nube/main/discurso3.txt</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
